--- a/biology/Médecine/Syndrome_de_Walker-Warburg/Syndrome_de_Walker-Warburg.xlsx
+++ b/biology/Médecine/Syndrome_de_Walker-Warburg/Syndrome_de_Walker-Warburg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Walker-Warburg est la plus sévère des dystrophies musculaires congénitales associée à des anomalies du cerveau et des yeux aboutissant rapidement au décès de l'enfant dans la majorité des cas avant trois ans. Les anomalies neurologiques les plus fréquentes sont la lissencéphalie pavimenteuse, l'hydrocéphalie et les anomalies du cervelet.
@@ -515,7 +527,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome de HARD +/- E
 Syndrome de Warburg
@@ -550,10 +564,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 236670 [1]
-(en) Jiri Vajsar, Harry Schachter, Walker-Warburg syndrome Orphanet Journal of Rare Diseases 2006, 1:29 doi:10.1186/1750-1172-1-29 [2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 236670 
+(en) Jiri Vajsar, Harry Schachter, Walker-Warburg syndrome Orphanet Journal of Rare Diseases 2006, 1:29 doi:10.1186/1750-1172-1-29 </t>
         </is>
       </c>
     </row>
